--- a/academycity/data/avic/datasets/excel/world_bank/Population_ Total_Jun_2023.xlsx
+++ b/academycity/data/avic/datasets/excel/world_bank/Population_ Total_Jun_2023.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="470">
   <si>
     <t xml:space="preserve">Country Name</t>
   </si>
@@ -1343,12 +1343,6 @@
     <t xml:space="preserve">VIR</t>
   </si>
   <si>
-    <t xml:space="preserve">West Bank and Gaza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSE</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yemen, Rep.</t>
   </si>
   <si>
@@ -1365,291 +1359,6 @@
   </si>
   <si>
     <t xml:space="preserve">ZWE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Africa Eastern and Southern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Africa Western and Central</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arab World</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caribbean small states</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central Europe and the Baltics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Early-demographic dividend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East Asia &amp; Pacific</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East Asia &amp; Pacific (excluding high income)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EAP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East Asia &amp; Pacific (IDA &amp; IBRD countries)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Euro area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe &amp; Central Asia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe &amp; Central Asia (excluding high income)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe &amp; Central Asia (IDA &amp; IBRD countries)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European Union</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EUU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fragile and conflict affected situations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FCS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heavily indebted poor countries (HIPC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBRD only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDA &amp; IBRD total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDA blend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDA only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDA total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Late-demographic dividend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latin America &amp; Caribbean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LCN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latin America &amp; Caribbean (excluding high income)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latin America &amp; the Caribbean (IDA &amp; IBRD countries)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Least developed countries: UN classification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Low &amp; middle income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower middle income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle East &amp; North Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle East &amp; North Africa (excluding high income)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle East &amp; North Africa (IDA &amp; IBRD countries)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TMN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North America</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not classified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OECD members</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other small states</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pacific island small states</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Post-demographic dividend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-demographic dividend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Small states</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Asia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Asia (IDA &amp; IBRD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub-Saharan Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub-Saharan Africa (excluding high income)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SSA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub-Saharan Africa (IDA &amp; IBRD countries)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper middle income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UMC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WLD</t>
   </si>
   <si>
     <t xml:space="preserve">Code</t>
@@ -1917,15 +1626,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H267"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A217" activeCellId="0" sqref="A217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="0" width="13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="965" min="9" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="966" style="0" width="9.14"/>
@@ -7561,16 +7271,16 @@
         <v>11</v>
       </c>
       <c r="E217" s="0" t="n">
-        <v>2922153</v>
+        <v>18628700</v>
       </c>
       <c r="F217" s="0" t="n">
-        <v>3494496</v>
+        <v>22641538</v>
       </c>
       <c r="G217" s="0" t="n">
-        <v>4173398</v>
+        <v>27753304</v>
       </c>
       <c r="H217" s="0" t="n">
-        <v>4569087</v>
+        <v>30790513</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7587,16 +7297,16 @@
         <v>11</v>
       </c>
       <c r="E218" s="0" t="n">
-        <v>18628700</v>
+        <v>9891136</v>
       </c>
       <c r="F218" s="0" t="n">
-        <v>22641538</v>
+        <v>12402073</v>
       </c>
       <c r="G218" s="0" t="n">
-        <v>27753304</v>
+        <v>15737793</v>
       </c>
       <c r="H218" s="0" t="n">
-        <v>30790513</v>
+        <v>17835893</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7613,1266 +7323,66 @@
         <v>11</v>
       </c>
       <c r="E219" s="0" t="n">
-        <v>9891136</v>
+        <v>11834676</v>
       </c>
       <c r="F219" s="0" t="n">
-        <v>12402073</v>
+        <v>12450568</v>
       </c>
       <c r="G219" s="0" t="n">
-        <v>15737793</v>
+        <v>13855753</v>
       </c>
       <c r="H219" s="0" t="n">
-        <v>17835893</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C220" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E220" s="0" t="n">
-        <v>11834676</v>
-      </c>
-      <c r="F220" s="0" t="n">
-        <v>12450568</v>
-      </c>
-      <c r="G220" s="0" t="n">
-        <v>13855753</v>
-      </c>
-      <c r="H220" s="0" t="n">
         <v>15052184</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C221" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E221" s="0" t="n">
-        <v>401600588</v>
-      </c>
-      <c r="F221" s="0" t="n">
-        <v>482406426</v>
-      </c>
-      <c r="G221" s="0" t="n">
-        <v>583651101</v>
-      </c>
-      <c r="H221" s="0" t="n">
-        <v>649757148</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0" t="s">
-        <v>450</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="C222" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E222" s="0" t="n">
-        <v>269611898</v>
-      </c>
-      <c r="F222" s="0" t="n">
-        <v>327612838</v>
-      </c>
-      <c r="G222" s="0" t="n">
-        <v>397855507</v>
-      </c>
-      <c r="H222" s="0" t="n">
-        <v>442646825</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C223" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E223" s="0" t="n">
-        <v>287065982</v>
-      </c>
-      <c r="F223" s="0" t="n">
-        <v>337498222</v>
-      </c>
-      <c r="G223" s="0" t="n">
-        <v>397922915</v>
-      </c>
-      <c r="H223" s="0" t="n">
-        <v>432545676</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="s">
-        <v>454</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C224" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E224" s="0" t="n">
-        <v>6582141</v>
-      </c>
-      <c r="F224" s="0" t="n">
-        <v>6884705</v>
-      </c>
-      <c r="G224" s="0" t="n">
-        <v>7181044</v>
-      </c>
-      <c r="H224" s="0" t="n">
-        <v>7374650</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="s">
-        <v>456</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="C225" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E225" s="0" t="n">
-        <v>108447824</v>
-      </c>
-      <c r="F225" s="0" t="n">
-        <v>105378748</v>
-      </c>
-      <c r="G225" s="0" t="n">
-        <v>103496179</v>
-      </c>
-      <c r="H225" s="0" t="n">
-        <v>102538451</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="s">
-        <v>458</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C226" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E226" s="0" t="n">
-        <v>2499206970</v>
-      </c>
-      <c r="F226" s="0" t="n">
-        <v>2814101547</v>
-      </c>
-      <c r="G226" s="0" t="n">
-        <v>3122586392</v>
-      </c>
-      <c r="H226" s="0" t="n">
-        <v>3294298709</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0" t="s">
-        <v>460</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C227" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E227" s="0" t="n">
-        <v>2048148696</v>
-      </c>
-      <c r="F227" s="0" t="n">
-        <v>2164155292</v>
-      </c>
-      <c r="G227" s="0" t="n">
-        <v>2278232287</v>
-      </c>
-      <c r="H227" s="0" t="n">
-        <v>2341387076</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="s">
-        <v>462</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="C228" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E228" s="0" t="n">
-        <v>1817006555</v>
-      </c>
-      <c r="F228" s="0" t="n">
-        <v>1926306467</v>
-      </c>
-      <c r="G228" s="0" t="n">
-        <v>2034264880</v>
-      </c>
-      <c r="H228" s="0" t="n">
-        <v>2094524854</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C229" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E229" s="0" t="n">
-        <v>1793649873</v>
-      </c>
-      <c r="F229" s="0" t="n">
-        <v>1901960228</v>
-      </c>
-      <c r="G229" s="0" t="n">
-        <v>2009149689</v>
-      </c>
-      <c r="H229" s="0" t="n">
-        <v>2068898629</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C230" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E230" s="0" t="n">
-        <v>321324622</v>
-      </c>
-      <c r="F230" s="0" t="n">
-        <v>332660837</v>
-      </c>
-      <c r="G230" s="0" t="n">
-        <v>338486932</v>
-      </c>
-      <c r="H230" s="0" t="n">
-        <v>342065158</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C231" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E231" s="0" t="n">
-        <v>862786211</v>
-      </c>
-      <c r="F231" s="0" t="n">
-        <v>878767025</v>
-      </c>
-      <c r="G231" s="0" t="n">
-        <v>903601049</v>
-      </c>
-      <c r="H231" s="0" t="n">
-        <v>918782553</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C232" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D232" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E232" s="0" t="n">
-        <v>370646199</v>
-      </c>
-      <c r="F232" s="0" t="n">
-        <v>373795966</v>
-      </c>
-      <c r="G232" s="0" t="n">
-        <v>388842371</v>
-      </c>
-      <c r="H232" s="0" t="n">
-        <v>398076771</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="C233" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E233" s="0" t="n">
-        <v>435816101</v>
-      </c>
-      <c r="F233" s="0" t="n">
-        <v>437109725</v>
-      </c>
-      <c r="G233" s="0" t="n">
-        <v>451001474</v>
-      </c>
-      <c r="H233" s="0" t="n">
-        <v>459613334</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="0" t="s">
-        <v>474</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C234" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E234" s="0" t="n">
-        <v>429342455</v>
-      </c>
-      <c r="F234" s="0" t="n">
-        <v>438484072</v>
-      </c>
-      <c r="G234" s="0" t="n">
-        <v>443601373</v>
-      </c>
-      <c r="H234" s="0" t="n">
-        <v>447001100</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="0" t="s">
-        <v>476</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="C235" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E235" s="0" t="n">
-        <v>612395529</v>
-      </c>
-      <c r="F235" s="0" t="n">
-        <v>723581503</v>
-      </c>
-      <c r="G235" s="0" t="n">
-        <v>856705624</v>
-      </c>
-      <c r="H235" s="0" t="n">
-        <v>936387926</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="0" t="s">
-        <v>478</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="C236" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E236" s="0" t="n">
-        <v>475127894</v>
-      </c>
-      <c r="F236" s="0" t="n">
-        <v>579864063</v>
-      </c>
-      <c r="G236" s="0" t="n">
-        <v>706617213</v>
-      </c>
-      <c r="H236" s="0" t="n">
-        <v>792615894</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="0" t="s">
-        <v>480</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C237" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E237" s="0" t="n">
-        <v>3980362565</v>
-      </c>
-      <c r="F237" s="0" t="n">
-        <v>4295135714</v>
-      </c>
-      <c r="G237" s="0" t="n">
-        <v>4617515110</v>
-      </c>
-      <c r="H237" s="0" t="n">
-        <v>4795958028</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="0" t="s">
-        <v>482</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C238" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E238" s="0" t="n">
-        <v>5093905754</v>
-      </c>
-      <c r="F238" s="0" t="n">
-        <v>5612900975</v>
-      </c>
-      <c r="G238" s="0" t="n">
-        <v>6161220418</v>
-      </c>
-      <c r="H238" s="0" t="n">
-        <v>6479097568</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="0" t="s">
-        <v>484</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C239" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E239" s="0" t="n">
-        <v>370910722</v>
-      </c>
-      <c r="F239" s="0" t="n">
-        <v>439576756</v>
-      </c>
-      <c r="G239" s="0" t="n">
-        <v>516900084</v>
-      </c>
-      <c r="H239" s="0" t="n">
-        <v>559155599</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="0" t="s">
-        <v>486</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="C240" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E240" s="0" t="n">
-        <v>742632467</v>
-      </c>
-      <c r="F240" s="0" t="n">
-        <v>878188505</v>
-      </c>
-      <c r="G240" s="0" t="n">
-        <v>1026805224</v>
-      </c>
-      <c r="H240" s="0" t="n">
-        <v>1123983941</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="0" t="s">
-        <v>488</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C241" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E241" s="0" t="n">
-        <v>1113543189</v>
-      </c>
-      <c r="F241" s="0" t="n">
-        <v>1317765261</v>
-      </c>
-      <c r="G241" s="0" t="n">
-        <v>1543705308</v>
-      </c>
-      <c r="H241" s="0" t="n">
-        <v>1683139540</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="0" t="s">
-        <v>490</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C242" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E242" s="0" t="n">
-        <v>2046026051</v>
-      </c>
-      <c r="F242" s="0" t="n">
-        <v>2142132712</v>
-      </c>
-      <c r="G242" s="0" t="n">
-        <v>2244043359</v>
-      </c>
-      <c r="H242" s="0" t="n">
-        <v>2298987594</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="0" t="s">
-        <v>492</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C243" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E243" s="0" t="n">
-        <v>521281149</v>
-      </c>
-      <c r="F243" s="0" t="n">
-        <v>569972223</v>
-      </c>
-      <c r="G243" s="0" t="n">
-        <v>615046755</v>
-      </c>
-      <c r="H243" s="0" t="n">
-        <v>639628226</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="0" t="s">
-        <v>494</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C244" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E244" s="0" t="n">
-        <v>468125382</v>
-      </c>
-      <c r="F244" s="0" t="n">
-        <v>511989821</v>
-      </c>
-      <c r="G244" s="0" t="n">
-        <v>552781789</v>
-      </c>
-      <c r="H244" s="0" t="n">
-        <v>576620516</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="0" t="s">
-        <v>496</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="C245" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E245" s="0" t="n">
-        <v>505304844</v>
-      </c>
-      <c r="F245" s="0" t="n">
-        <v>553771247</v>
-      </c>
-      <c r="G245" s="0" t="n">
-        <v>598949385</v>
-      </c>
-      <c r="H245" s="0" t="n">
-        <v>623841282</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="0" t="s">
-        <v>498</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="C246" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E246" s="0" t="n">
-        <v>662018171</v>
-      </c>
-      <c r="F246" s="0" t="n">
-        <v>786317083</v>
-      </c>
-      <c r="G246" s="0" t="n">
-        <v>929398042</v>
-      </c>
-      <c r="H246" s="0" t="n">
-        <v>1023493788</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="0" t="s">
-        <v>500</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C247" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E247" s="0" t="n">
-        <v>5017754094</v>
-      </c>
-      <c r="F247" s="0" t="n">
-        <v>5535561492</v>
-      </c>
-      <c r="G247" s="0" t="n">
-        <v>6082090949</v>
-      </c>
-      <c r="H247" s="0" t="n">
-        <v>6400438789</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="0" t="s">
-        <v>502</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="C248" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E248" s="0" t="n">
-        <v>2259879800</v>
-      </c>
-      <c r="F248" s="0" t="n">
-        <v>2555229019</v>
-      </c>
-      <c r="G248" s="0" t="n">
-        <v>2858673420</v>
-      </c>
-      <c r="H248" s="0" t="n">
-        <v>3033153113</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="0" t="s">
-        <v>504</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="C249" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E249" s="0" t="n">
-        <v>321037453</v>
-      </c>
-      <c r="F249" s="0" t="n">
-        <v>371324802</v>
-      </c>
-      <c r="G249" s="0" t="n">
-        <v>431664579</v>
-      </c>
-      <c r="H249" s="0" t="n">
-        <v>465073490</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="0" t="s">
-        <v>506</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C250" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E250" s="0" t="n">
-        <v>283899110</v>
-      </c>
-      <c r="F250" s="0" t="n">
-        <v>324080392</v>
-      </c>
-      <c r="G250" s="0" t="n">
-        <v>370756356</v>
-      </c>
-      <c r="H250" s="0" t="n">
-        <v>398375344</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="0" t="s">
-        <v>508</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="C251" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E251" s="0" t="n">
-        <v>280976957</v>
-      </c>
-      <c r="F251" s="0" t="n">
-        <v>320585896</v>
-      </c>
-      <c r="G251" s="0" t="n">
-        <v>366582958</v>
-      </c>
-      <c r="H251" s="0" t="n">
-        <v>393806257</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="0" t="s">
-        <v>510</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="C252" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E252" s="0" t="n">
-        <v>4635160614</v>
-      </c>
-      <c r="F252" s="0" t="n">
-        <v>5066550720</v>
-      </c>
-      <c r="G252" s="0" t="n">
-        <v>5514388653</v>
-      </c>
-      <c r="H252" s="0" t="n">
-        <v>5769572963</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="0" t="s">
-        <v>512</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="C253" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E253" s="0" t="n">
-        <v>312909974</v>
-      </c>
-      <c r="F253" s="0" t="n">
-        <v>334185120</v>
-      </c>
-      <c r="G253" s="0" t="n">
-        <v>353888902</v>
-      </c>
-      <c r="H253" s="0" t="n">
-        <v>363967201</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="0" t="s">
-        <v>514</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="C254" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E254" s="0" t="s">
-        <v>516</v>
-      </c>
-      <c r="F254" s="0" t="s">
-        <v>516</v>
-      </c>
-      <c r="G254" s="0" t="s">
-        <v>516</v>
-      </c>
-      <c r="H254" s="0" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="0" t="s">
-        <v>517</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="C255" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E255" s="0" t="n">
-        <v>1200179492</v>
-      </c>
-      <c r="F255" s="0" t="n">
-        <v>1264209610</v>
-      </c>
-      <c r="G255" s="0" t="n">
-        <v>1323005691</v>
-      </c>
-      <c r="H255" s="0" t="n">
-        <v>1356241793</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="C256" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E256" s="0" t="n">
-        <v>21437978</v>
-      </c>
-      <c r="F256" s="0" t="n">
-        <v>24697686</v>
-      </c>
-      <c r="G256" s="0" t="n">
-        <v>28907552</v>
-      </c>
-      <c r="H256" s="0" t="n">
-        <v>31494491</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="0" t="s">
-        <v>521</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="C257" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E257" s="0" t="n">
-        <v>2035672</v>
-      </c>
-      <c r="F257" s="0" t="n">
-        <v>2226078</v>
-      </c>
-      <c r="G257" s="0" t="n">
-        <v>2405308</v>
-      </c>
-      <c r="H257" s="0" t="n">
-        <v>2510226</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="0" t="s">
-        <v>523</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="C258" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E258" s="0" t="n">
-        <v>1020793420</v>
-      </c>
-      <c r="F258" s="0" t="n">
-        <v>1058252873</v>
-      </c>
-      <c r="G258" s="0" t="n">
-        <v>1092179620</v>
-      </c>
-      <c r="H258" s="0" t="n">
-        <v>1110126741</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="0" t="s">
-        <v>525</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="C259" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E259" s="0" t="n">
-        <v>553089230</v>
-      </c>
-      <c r="F259" s="0" t="n">
-        <v>677333522</v>
-      </c>
-      <c r="G259" s="0" t="n">
-        <v>832469778</v>
-      </c>
-      <c r="H259" s="0" t="n">
-        <v>931467165</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="0" t="s">
-        <v>527</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="C260" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E260" s="0" t="n">
-        <v>30055791</v>
-      </c>
-      <c r="F260" s="0" t="n">
-        <v>33808469</v>
-      </c>
-      <c r="G260" s="0" t="n">
-        <v>38493904</v>
-      </c>
-      <c r="H260" s="0" t="n">
-        <v>41379367</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="0" t="s">
-        <v>529</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="C261" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E261" s="0" t="n">
-        <v>1406945493</v>
-      </c>
-      <c r="F261" s="0" t="n">
-        <v>1589454615</v>
-      </c>
-      <c r="G261" s="0" t="n">
-        <v>1754030304</v>
-      </c>
-      <c r="H261" s="0" t="n">
-        <v>1840534093</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="0" t="s">
-        <v>531</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="C262" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E262" s="0" t="n">
-        <v>1406945493</v>
-      </c>
-      <c r="F262" s="0" t="n">
-        <v>1589454615</v>
-      </c>
-      <c r="G262" s="0" t="n">
-        <v>1754030304</v>
-      </c>
-      <c r="H262" s="0" t="n">
-        <v>1840534093</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="0" t="s">
-        <v>533</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C263" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E263" s="0" t="n">
-        <v>671212486</v>
-      </c>
-      <c r="F263" s="0" t="n">
-        <v>810019264</v>
-      </c>
-      <c r="G263" s="0" t="n">
-        <v>981506608</v>
-      </c>
-      <c r="H263" s="0" t="n">
-        <v>1092403973</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="0" t="s">
-        <v>535</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="C264" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D264" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E264" s="0" t="n">
-        <v>671131355</v>
-      </c>
-      <c r="F264" s="0" t="n">
-        <v>809934231</v>
-      </c>
-      <c r="G264" s="0" t="n">
-        <v>981415249</v>
-      </c>
-      <c r="H264" s="0" t="n">
-        <v>1092307211</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="0" t="s">
-        <v>537</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="C265" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D265" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E265" s="0" t="n">
-        <v>671212486</v>
-      </c>
-      <c r="F265" s="0" t="n">
-        <v>810019264</v>
-      </c>
-      <c r="G265" s="0" t="n">
-        <v>981506608</v>
-      </c>
-      <c r="H265" s="0" t="n">
-        <v>1092403973</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="0" t="s">
-        <v>539</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="C266" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D266" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E266" s="0" t="n">
-        <v>2375280814</v>
-      </c>
-      <c r="F266" s="0" t="n">
-        <v>2511321701</v>
-      </c>
-      <c r="G266" s="0" t="n">
-        <v>2655715233</v>
-      </c>
-      <c r="H266" s="0" t="n">
-        <v>2736419850</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="0" t="s">
-        <v>541</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="C267" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E267" s="0" t="n">
-        <v>6144321462</v>
-      </c>
-      <c r="F267" s="0" t="n">
-        <v>6717878341</v>
-      </c>
-      <c r="G267" s="0" t="n">
-        <v>7317970484</v>
-      </c>
-      <c r="H267" s="0" t="n">
-        <v>7661776612</v>
-      </c>
-    </row>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -8904,43 +7414,43 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>543</v>
+        <v>446</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>544</v>
+        <v>447</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>545</v>
+        <v>448</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>546</v>
+        <v>449</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>547</v>
+        <v>450</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>548</v>
+        <v>451</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>549</v>
+        <v>452</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>550</v>
+        <v>453</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>551</v>
+        <v>454</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>552</v>
+        <v>455</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>553</v>
+        <v>456</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>554</v>
+        <v>457</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>555</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8948,40 +7458,40 @@
         <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>556</v>
+        <v>459</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>557</v>
+        <v>460</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>558</v>
+        <v>461</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>559</v>
+        <v>462</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>560</v>
+        <v>463</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>561</v>
+        <v>464</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>562</v>
+        <v>465</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>563</v>
+        <v>466</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>564</v>
+        <v>467</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>565</v>
+        <v>468</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>566</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
